--- a/AHP/uploads/matrannha.xlsx
+++ b/AHP/uploads/matrannha.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4d9242a3c9fb5b61/Tài liệu/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DSS\pjr\AHP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8AF6FAC7-B270-4AD6-87F0-9E9105477208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5442A165-565A-44FA-BA6F-CBF06CD39391}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F6158E-E67A-42B7-AD65-D410920706F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{891456C8-1068-432D-9335-BBA1880E9CB3}"/>
+    <workbookView xWindow="22932" yWindow="-732" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{891456C8-1068-432D-9335-BBA1880E9CB3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Vị Trí" sheetId="1" r:id="rId1"/>
+    <sheet name="Giá" sheetId="2" r:id="rId2"/>
+    <sheet name="Diện Tích" sheetId="3" r:id="rId3"/>
+    <sheet name="Tiện Ích XH" sheetId="4" r:id="rId4"/>
+    <sheet name="An Ninh" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,31 +31,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
   <si>
-    <t>Nhà A-Tân Phú</t>
+    <t xml:space="preserve">Nhà 1-Thanh Xuân </t>
   </si>
   <si>
-    <t>Nhà A-Quận 1</t>
+    <t>Nhà 2-Thanh Xuân</t>
   </si>
   <si>
-    <t>Nhà B-Long An</t>
+    <t>Nhà 1-Ba Đình</t>
   </si>
   <si>
-    <t>Nhà C- Tân Bình</t>
+    <t>Nhà 2-Ba Đình</t>
   </si>
   <si>
-    <t>Nhà F- Quận 5</t>
+    <t>Nhà 1-Đống Đa</t>
   </si>
   <si>
-    <t>Nhà F- Quận 1</t>
+    <t>Nhà 2-Đống Đa</t>
   </si>
   <si>
-    <t>Nhà D- Quận 8</t>
+    <t>Nhà 3-Đống Đa</t>
   </si>
   <si>
-    <t>Nhà A- Quận 8</t>
+    <t>Nhà 1-Cầu Giấy</t>
   </si>
   <si>
-    <t>Nhà D- Quận 1</t>
+    <t>Nhà 2-Cầu Giấy</t>
   </si>
 </sst>
 </file>
@@ -66,14 +66,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -452,22 +452,22 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -475,29 +475,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -527,7 +527,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0.5</v>
       </c>
@@ -557,7 +557,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0.5</v>
       </c>
@@ -587,7 +587,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -617,7 +617,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -647,7 +647,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -677,7 +677,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -707,7 +707,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -737,7 +737,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -777,22 +777,22 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C8" sqref="C8:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,29 +800,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -852,7 +852,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -882,7 +882,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0.25</v>
       </c>
@@ -912,7 +912,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0.2</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -972,7 +972,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0.25</v>
       </c>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0.25</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0.5</v>
       </c>
@@ -1101,23 +1101,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87A13E2-359C-4EAF-BA09-9DB6CA7C80C7}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1125,34 +1125,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>0.33333333333333331</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="C2" s="3">
         <v>0.2</v>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -1427,22 +1427,22 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1450,29 +1450,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0.5</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0.5</v>
       </c>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0.5</v>
       </c>
@@ -1751,23 +1751,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D065E59D-D04E-461F-B019-BB7D8C0A27D9}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1775,29 +1775,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>0.33333333333333331</v>
       </c>
@@ -1887,7 +1887,7 @@
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>0.5</v>
       </c>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>0.5</v>
       </c>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0.5</v>
       </c>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>0.5</v>
       </c>
@@ -2007,7 +2007,7 @@
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -2037,7 +2037,7 @@
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>0.5</v>
       </c>
